--- a/PristonTaleM_Test Suite.xlsx
+++ b/PristonTaleM_Test Suite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BGY_PORTFOLIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AEA49-A175-497C-8207-8CA1779807E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34B1414-6DAC-49D0-93C1-19FD39909E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7D2B9EF1-4278-466E-84B3-24178BA4EC69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7D2B9EF1-4278-466E-84B3-24178BA4EC69}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
   <si>
     <t>메인 화면 좌측 상단에 미니 맵이 출력되는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,6 +742,46 @@
   <si>
     <t>게임 시작 시 진행되는 퀘스트 1에서 3까지의 테스트
 퀘스트 진행 동안 퀘스트에 알맞게 진행이 되는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리스톤테일 M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[프리스타스 전직 1-1] 퀘스트 터치 시 해당 화면으로 전환되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직 화면으로 이동 후 우측에 위치한 전직 퀘스트의 중앙 하단에 위치한 [수락] 버튼 터치 시 메인 화면으로 이동하는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[프리스타스 전직 1-1] 제목 하단에 [터치해서 수락하세요.] 텍스트가 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 상단에 캐릭터의 레벨이 Lv.20 달성 시 메인화면 좌측에 [프리스타스 전직 1-1] 퀘스트 UI형식으로 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직 화면으로 이동 후 우측에 위치한 전직 퀘스트의 중앙 하단에 위치한 [수락] 버튼 터치 시 메인 화면 우측에 위치한 전직 퀘스트 상세 내용이 [마법수련소 레이몬에게 대화(0/1)]으로 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직 퀘스트 상세 내용이 [마법수련소 레이몬에게 대화(0/1)]로 변경되었을 때 전직 퀘스트 UI 터치 시 [즉시 이동] 팝업창이 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[즉시 이동] 팝업창 중앙 하단에 버튼 2개가 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[즉시 이동] 팝업창 중앙 하단에 위치한 버튼 2개 중 좌측 버튼은 [취소] 텍스트가 출력되는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[즉시 이동] 팝업창 중앙 하단에 위치한 버튼 2개 중 우측 버튼은 [즉시 이동] 텍스트가 출력되는가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,14 +1051,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,19 +1063,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1427,7 @@
   <dimension ref="B1:I143"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1406,88 +1446,88 @@
   <sheetData>
     <row r="1" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="G10" s="1"/>
@@ -1541,7 +1581,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1554,7 +1594,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1607,7 @@
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
@@ -1580,7 +1620,7 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="31"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="6" t="s">
         <v>73</v>
       </c>
@@ -1593,7 +1633,7 @@
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="31"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1646,7 @@
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="6" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1659,7 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="6" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1672,7 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +1685,7 @@
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="31"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1658,7 +1698,7 @@
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1711,7 @@
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="6" t="s">
         <v>26</v>
       </c>
@@ -1684,7 +1724,7 @@
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="31"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1737,7 @@
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1750,7 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="6" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1763,7 @@
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1776,7 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="6" t="s">
         <v>12</v>
       </c>
@@ -1749,7 +1789,7 @@
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="6" t="s">
         <v>45</v>
       </c>
@@ -1762,7 +1802,7 @@
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="6" t="s">
         <v>14</v>
       </c>
@@ -1775,7 +1815,7 @@
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1788,7 +1828,7 @@
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="6" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +1841,7 @@
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="6" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1854,7 @@
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="6" t="s">
         <v>19</v>
       </c>
@@ -1827,7 +1867,7 @@
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="31"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="6" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1880,7 @@
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="6" t="s">
         <v>17</v>
       </c>
@@ -1853,7 +1893,7 @@
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="6" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1906,7 @@
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="31"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="6" t="s">
         <v>47</v>
       </c>
@@ -1879,7 +1919,7 @@
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="31"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="6" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1932,7 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="6" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1945,7 @@
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="31"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="6" t="s">
         <v>21</v>
       </c>
@@ -1918,7 +1958,7 @@
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="31"/>
-      <c r="E42" s="40"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="6" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1971,7 @@
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="31"/>
-      <c r="E43" s="40"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="6" t="s">
         <v>51</v>
       </c>
@@ -1944,7 +1984,7 @@
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="31"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="6" t="s">
         <v>52</v>
       </c>
@@ -1957,7 +1997,7 @@
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="31"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="6" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +2010,7 @@
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="31"/>
-      <c r="E46" s="40"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="6" t="s">
         <v>24</v>
       </c>
@@ -1983,7 +2023,7 @@
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="31"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="6" t="s">
         <v>49</v>
       </c>
@@ -1996,7 +2036,7 @@
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="31"/>
-      <c r="E48" s="40"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="6" t="s">
         <v>54</v>
       </c>
@@ -2009,7 +2049,7 @@
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="31"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="6" t="s">
         <v>44</v>
       </c>
@@ -2022,7 +2062,7 @@
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="31"/>
-      <c r="E50" s="40"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="6" t="s">
         <v>50</v>
       </c>
@@ -2035,7 +2075,7 @@
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="31"/>
-      <c r="E51" s="40"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="6" t="s">
         <v>53</v>
       </c>
@@ -2048,7 +2088,7 @@
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="31"/>
-      <c r="E52" s="40"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="6" t="s">
         <v>55</v>
       </c>
@@ -2061,7 +2101,7 @@
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="31"/>
-      <c r="E53" s="40"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="6" t="s">
         <v>56</v>
       </c>
@@ -2076,7 +2116,7 @@
       <c r="D54" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="40"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="6" t="s">
         <v>57</v>
       </c>
@@ -2089,7 +2129,7 @@
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="31"/>
-      <c r="E55" s="40"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="6" t="s">
         <v>58</v>
       </c>
@@ -2102,7 +2142,7 @@
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="31"/>
-      <c r="E56" s="40"/>
+      <c r="E56" s="38"/>
       <c r="F56" s="6" t="s">
         <v>59</v>
       </c>
@@ -2115,7 +2155,7 @@
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="31"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="38"/>
       <c r="F57" s="6" t="s">
         <v>62</v>
       </c>
@@ -2128,7 +2168,7 @@
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="31"/>
-      <c r="E58" s="40"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="6" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2181,7 @@
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="31"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="38"/>
       <c r="F59" s="6" t="s">
         <v>65</v>
       </c>
@@ -2154,7 +2194,7 @@
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="31"/>
-      <c r="E60" s="40"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="6" t="s">
         <v>60</v>
       </c>
@@ -2169,7 +2209,7 @@
       <c r="D61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="40"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="6" t="s">
         <v>76</v>
       </c>
@@ -2182,7 +2222,7 @@
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="31"/>
-      <c r="E62" s="40"/>
+      <c r="E62" s="38"/>
       <c r="F62" s="6" t="s">
         <v>63</v>
       </c>
@@ -2195,7 +2235,7 @@
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="31"/>
-      <c r="E63" s="40"/>
+      <c r="E63" s="38"/>
       <c r="F63" s="6" t="s">
         <v>66</v>
       </c>
@@ -2208,7 +2248,7 @@
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="31"/>
-      <c r="E64" s="40"/>
+      <c r="E64" s="38"/>
       <c r="F64" s="6" t="s">
         <v>67</v>
       </c>
@@ -2221,7 +2261,7 @@
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="31"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="38"/>
       <c r="F65" s="6" t="s">
         <v>68</v>
       </c>
@@ -2234,7 +2274,7 @@
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="31"/>
-      <c r="E66" s="40"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="6" t="s">
         <v>69</v>
       </c>
@@ -2247,7 +2287,7 @@
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="31"/>
-      <c r="E67" s="40"/>
+      <c r="E67" s="38"/>
       <c r="F67" s="6" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2302,7 @@
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="31"/>
-      <c r="E68" s="40"/>
+      <c r="E68" s="38"/>
       <c r="F68" s="6" t="s">
         <v>98</v>
       </c>
@@ -2275,7 +2315,7 @@
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="31"/>
-      <c r="E69" s="40"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="6" t="s">
         <v>74</v>
       </c>
@@ -2288,7 +2328,7 @@
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="31"/>
-      <c r="E70" s="40"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="6" t="s">
         <v>75</v>
       </c>
@@ -2303,7 +2343,7 @@
       <c r="D71" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="40"/>
+      <c r="E71" s="38"/>
       <c r="F71" s="6" t="s">
         <v>77</v>
       </c>
@@ -2316,7 +2356,7 @@
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="31"/>
-      <c r="E72" s="40"/>
+      <c r="E72" s="38"/>
       <c r="F72" s="6" t="s">
         <v>78</v>
       </c>
@@ -2329,7 +2369,7 @@
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="31"/>
-      <c r="E73" s="40"/>
+      <c r="E73" s="38"/>
       <c r="F73" s="6" t="s">
         <v>100</v>
       </c>
@@ -2344,7 +2384,7 @@
       <c r="D74" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="40"/>
+      <c r="E74" s="38"/>
       <c r="F74" s="6" t="s">
         <v>102</v>
       </c>
@@ -2357,7 +2397,7 @@
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="31"/>
-      <c r="E75" s="40"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="6" t="s">
         <v>103</v>
       </c>
@@ -2370,7 +2410,7 @@
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="31"/>
-      <c r="E76" s="40"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="6" t="s">
         <v>104</v>
       </c>
@@ -2383,7 +2423,7 @@
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="40"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="6" t="s">
         <v>106</v>
       </c>
@@ -2396,7 +2436,7 @@
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="31"/>
-      <c r="E78" s="40"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="6" t="s">
         <v>107</v>
       </c>
@@ -2409,7 +2449,7 @@
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="31"/>
-      <c r="E79" s="40"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="6" t="s">
         <v>108</v>
       </c>
@@ -2424,7 +2464,7 @@
       <c r="D80" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E80" s="40"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="6" t="s">
         <v>111</v>
       </c>
@@ -2437,7 +2477,7 @@
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="31"/>
-      <c r="E81" s="40"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="6" t="s">
         <v>112</v>
       </c>
@@ -2450,7 +2490,7 @@
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="31"/>
-      <c r="E82" s="40"/>
+      <c r="E82" s="38"/>
       <c r="F82" s="6" t="s">
         <v>113</v>
       </c>
@@ -2463,7 +2503,7 @@
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="31"/>
-      <c r="E83" s="40"/>
+      <c r="E83" s="38"/>
       <c r="F83" s="6" t="s">
         <v>114</v>
       </c>
@@ -2476,7 +2516,7 @@
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="31"/>
-      <c r="E84" s="40"/>
+      <c r="E84" s="38"/>
       <c r="F84" s="6" t="s">
         <v>116</v>
       </c>
@@ -2489,7 +2529,7 @@
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="31"/>
-      <c r="E85" s="40"/>
+      <c r="E85" s="38"/>
       <c r="F85" s="6" t="s">
         <v>115</v>
       </c>
@@ -2502,7 +2542,7 @@
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="31"/>
-      <c r="E86" s="40"/>
+      <c r="E86" s="38"/>
       <c r="F86" s="6" t="s">
         <v>117</v>
       </c>
@@ -2517,7 +2557,7 @@
       <c r="D87" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="40"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="6" t="s">
         <v>119</v>
       </c>
@@ -2529,8 +2569,8 @@
         <v>77</v>
       </c>
       <c r="C88" s="33"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="6" t="s">
         <v>120</v>
       </c>
@@ -2542,8 +2582,8 @@
         <v>78</v>
       </c>
       <c r="C89" s="33"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
       <c r="F89" s="6" t="s">
         <v>124</v>
       </c>
@@ -2555,8 +2595,8 @@
         <v>79</v>
       </c>
       <c r="C90" s="33"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
       <c r="F90" s="6" t="s">
         <v>125</v>
       </c>
@@ -2568,8 +2608,8 @@
         <v>80</v>
       </c>
       <c r="C91" s="33"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
       <c r="F91" s="6" t="s">
         <v>121</v>
       </c>
@@ -2581,8 +2621,8 @@
         <v>81</v>
       </c>
       <c r="C92" s="33"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
       <c r="F92" s="6" t="s">
         <v>122</v>
       </c>
@@ -2594,8 +2634,8 @@
         <v>82</v>
       </c>
       <c r="C93" s="33"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
       <c r="F93" s="6" t="s">
         <v>123</v>
       </c>
@@ -2608,7 +2648,7 @@
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="37"/>
-      <c r="E94" s="40"/>
+      <c r="E94" s="38"/>
       <c r="F94" s="6" t="s">
         <v>128</v>
       </c>
@@ -2623,7 +2663,7 @@
       <c r="D95" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="40"/>
+      <c r="E95" s="38"/>
       <c r="F95" s="6" t="s">
         <v>129</v>
       </c>
@@ -2635,8 +2675,8 @@
         <v>85</v>
       </c>
       <c r="C96" s="33"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
       <c r="F96" s="6" t="s">
         <v>130</v>
       </c>
@@ -2648,8 +2688,8 @@
         <v>86</v>
       </c>
       <c r="C97" s="33"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
       <c r="F97" s="6" t="s">
         <v>131</v>
       </c>
@@ -2661,8 +2701,8 @@
         <v>87</v>
       </c>
       <c r="C98" s="33"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
       <c r="F98" s="6" t="s">
         <v>126</v>
       </c>
@@ -2674,8 +2714,8 @@
         <v>88</v>
       </c>
       <c r="C99" s="33"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="6" t="s">
         <v>127</v>
       </c>
@@ -2688,7 +2728,7 @@
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="37"/>
-      <c r="E100" s="40"/>
+      <c r="E100" s="38"/>
       <c r="F100" s="6" t="s">
         <v>132</v>
       </c>
@@ -2703,7 +2743,7 @@
       <c r="D101" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="40"/>
+      <c r="E101" s="38"/>
       <c r="F101" s="6" t="s">
         <v>133</v>
       </c>
@@ -2715,8 +2755,8 @@
         <v>91</v>
       </c>
       <c r="C102" s="33"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="38"/>
       <c r="F102" s="6" t="s">
         <v>134</v>
       </c>
@@ -2728,8 +2768,8 @@
         <v>92</v>
       </c>
       <c r="C103" s="33"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="40"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
       <c r="F103" s="6" t="s">
         <v>135</v>
       </c>
@@ -2741,8 +2781,8 @@
         <v>93</v>
       </c>
       <c r="C104" s="33"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="38"/>
       <c r="F104" s="6" t="s">
         <v>136</v>
       </c>
@@ -3282,6 +3322,9 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="D101:D105"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="E4:H4"/>
@@ -3291,16 +3334,6 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D9"/>
-    <mergeCell ref="D12:D53"/>
-    <mergeCell ref="E12:E105"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="D61:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="D80:D86"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="D101:D105"/>
     <mergeCell ref="E129:E143"/>
     <mergeCell ref="D130:D143"/>
     <mergeCell ref="C12:C105"/>
@@ -3310,6 +3343,13 @@
     <mergeCell ref="E106:E128"/>
     <mergeCell ref="D123:D124"/>
     <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D12:D53"/>
+    <mergeCell ref="E12:E105"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="D61:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="D80:D86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3318,1365 +3358,1046 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE539F04-E935-4BAD-909F-047C7BC84371}">
-  <dimension ref="B1:M127"/>
+  <dimension ref="B1:L128"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="1"/>
-    <col min="7" max="7" width="38.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.69921875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="11.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="6" max="6" width="38.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.69921875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D4" s="15" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="47">
+      <c r="D4" s="45">
         <v>45525</v>
       </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D5" s="8" t="s">
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="8" t="s">
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="8" t="s">
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E8" s="41"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="E10" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="L14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
+        <v>7</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
+        <v>9</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
+        <v>10</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
+        <v>11</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
+        <v>12</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
+        <v>13</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="4">
+        <v>15</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="4">
+        <v>16</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
+        <v>17</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
+        <v>18</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="4">
+        <v>20</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="4">
+        <v>21</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="4">
+        <v>22</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="4">
+        <v>23</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="4">
+        <v>24</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="4">
+        <v>25</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="4">
+        <v>26</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="4">
+        <v>27</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="4">
+        <v>28</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="4">
+        <v>29</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="4">
+        <v>30</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="4">
+        <v>31</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="4">
+        <v>32</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="4">
+        <v>33</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="4">
+        <v>34</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="4">
+        <v>35</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="4">
+        <v>36</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="4">
+        <v>37</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="4">
+        <v>38</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="4">
+        <v>39</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="4">
+        <v>40</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="4">
+        <v>41</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="4">
+        <v>42</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="4">
+        <v>43</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="4">
+        <v>44</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="4">
+        <v>45</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="4">
+        <v>46</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="4">
+        <v>47</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59" s="4">
+        <v>48</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="4">
+        <v>49</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="4">
+        <v>50</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="4">
+        <v>51</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="4">
+        <v>52</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="4">
+        <v>53</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65" s="4">
+        <v>54</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="4">
+        <v>55</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67" s="4">
+        <v>56</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68" s="4">
+        <v>57</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69" s="4">
+        <v>58</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="4">
+        <v>59</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="4">
+        <v>60</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72" s="4">
+        <v>61</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73" s="4">
+        <v>62</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="4">
+        <v>63</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75" s="4">
+        <v>64</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76" s="4">
+        <v>65</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77" s="4">
+        <v>66</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78" s="4">
+        <v>67</v>
+      </c>
+      <c r="C78" s="38"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79" s="4">
+        <v>68</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80" s="4">
+        <v>69</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81" s="4">
+        <v>70</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B82" s="4">
+        <v>71</v>
+      </c>
+      <c r="C82" s="38"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B83" s="4">
+        <v>72</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84" s="4">
+        <v>73</v>
+      </c>
+      <c r="C84" s="38"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85" s="4">
+        <v>74</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="4">
+        <v>75</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87" s="4">
+        <v>76</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88" s="4">
+        <v>77</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B89" s="4">
+        <v>78</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="4">
+        <v>79</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B91" s="4">
+        <v>80</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="4">
+        <v>81</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="4">
+        <v>82</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="4">
+        <v>83</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95" s="4">
+        <v>84</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="4">
+        <v>85</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="4">
+        <v>86</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="4">
+        <v>87</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="4">
+        <v>88</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="4">
+        <v>89</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101" s="4">
+        <v>90</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102" s="4">
+        <v>91</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="4">
+        <v>92</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="4">
         <v>93</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="M13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="4">
-        <v>6</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4">
-        <v>7</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="4">
-        <v>8</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="4">
-        <v>11</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="4">
-        <v>12</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="4">
-        <v>13</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="4">
-        <v>14</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="4">
-        <v>15</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="4">
-        <v>16</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B27" s="4">
-        <v>17</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B28" s="4">
-        <v>18</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B29" s="4">
-        <v>19</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B30" s="4">
-        <v>20</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B31" s="4">
-        <v>21</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B32" s="4">
-        <v>22</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B33" s="4">
-        <v>23</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B34" s="4">
-        <v>24</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B35" s="4">
-        <v>25</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B36" s="4">
-        <v>26</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B37" s="4">
-        <v>27</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B38" s="4">
-        <v>28</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="2:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="4">
-        <v>29</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B40" s="4">
-        <v>30</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B41" s="4">
-        <v>31</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="4">
-        <v>32</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B43" s="4">
-        <v>33</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="2:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="4">
-        <v>34</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B45" s="4">
-        <v>35</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B46" s="4">
-        <v>36</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B47" s="4">
-        <v>37</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B48" s="4">
-        <v>38</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B49" s="4">
-        <v>39</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B50" s="4">
-        <v>40</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B51" s="4">
-        <v>41</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B52" s="4">
-        <v>42</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="2:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="4">
-        <v>43</v>
-      </c>
-      <c r="C53" s="31" t="s">
+      <c r="C104" s="38"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B105" s="27">
         <v>94</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="4">
-        <v>44</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B55" s="4">
-        <v>45</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B56" s="4">
-        <v>46</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B57" s="4">
-        <v>47</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B58" s="4">
-        <v>48</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="4">
-        <v>49</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="4">
-        <v>50</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="4">
-        <v>51</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="4">
-        <v>52</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B63" s="4">
-        <v>53</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B64" s="4">
-        <v>54</v>
-      </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B65" s="4">
-        <v>55</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="2:7" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B66" s="4">
-        <v>56</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B67" s="4">
-        <v>57</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B68" s="4">
-        <v>58</v>
-      </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B69" s="4">
-        <v>59</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="2:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="4">
-        <v>60</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="4">
-        <v>61</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="4">
-        <v>62</v>
-      </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="2:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="4">
-        <v>63</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="4">
-        <v>64</v>
-      </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="4">
-        <v>65</v>
-      </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-    </row>
-    <row r="76" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B76" s="4">
-        <v>66</v>
-      </c>
-      <c r="C76" s="31"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B77" s="4">
-        <v>67</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B78" s="4">
-        <v>68</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B79" s="4">
-        <v>69</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="4">
-        <v>70</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-    </row>
-    <row r="81" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B81" s="4">
-        <v>71</v>
-      </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B82" s="4">
-        <v>72</v>
-      </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B83" s="4">
-        <v>73</v>
-      </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B84" s="4">
-        <v>74</v>
-      </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="4">
-        <v>75</v>
-      </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="4">
-        <v>76</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="4">
-        <v>77</v>
-      </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="4">
-        <v>78</v>
-      </c>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="2:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="4">
-        <v>79</v>
-      </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="4">
-        <v>80</v>
-      </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B91" s="4">
-        <v>81</v>
-      </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B92" s="4">
-        <v>82</v>
-      </c>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B93" s="4">
-        <v>83</v>
-      </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B94" s="4">
-        <v>84</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="2:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="4">
-        <v>85</v>
-      </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B96" s="4">
-        <v>86</v>
-      </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B97" s="4">
-        <v>87</v>
-      </c>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-    </row>
-    <row r="98" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B98" s="4">
-        <v>88</v>
-      </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-    </row>
-    <row r="99" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B99" s="4">
-        <v>89</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B100" s="4">
-        <v>90</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="4">
-        <v>91</v>
-      </c>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="4">
-        <v>92</v>
-      </c>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-    </row>
-    <row r="103" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B103" s="4">
-        <v>93</v>
-      </c>
-      <c r="C103" s="40"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-    </row>
-    <row r="104" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B104" s="27">
-        <v>94</v>
-      </c>
-      <c r="C104" s="40"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B105" s="29"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C124" s="14"/>
-      <c r="D124" s="45"/>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C127" s="14"/>
-      <c r="D127" s="45"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B106" s="29"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C107" s="47"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C108" s="47"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C109" s="47"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C110" s="47"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C111" s="47"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C112" s="47"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C113" s="47"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C114" s="47"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C115" s="47"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C116" s="47"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C117" s="47"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C118" s="47"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C119" s="47"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C120" s="47"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C121" s="47"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C122" s="47"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C123" s="47"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C124" s="47"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C125" s="47"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C126" s="47"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C127" s="47"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C128" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C73:C78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C105:C121"/>
-    <mergeCell ref="D105:D127"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C11:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="C94:C99"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D11:D104"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
+  <mergeCells count="7">
+    <mergeCell ref="C106:C128"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C11:C105"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4687,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6E6634-758C-456A-B811-315F3FB87DC7}">
   <dimension ref="B1:M96"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4706,23 +4427,23 @@
   <sheetData>
     <row r="1" spans="2:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="45">
         <v>45525</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D5" s="8" t="s">
@@ -4740,19 +4461,19 @@
       <c r="D7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
@@ -4774,7 +4495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>1</v>
       </c>
@@ -4889,7 +4610,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>10</v>
       </c>
@@ -5099,7 +4820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA334AB8-F1C2-4054-874E-B0C46A2A9469}">
   <dimension ref="B1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5118,23 +4839,23 @@
   <sheetData>
     <row r="1" spans="2:13" ht="4.95" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:13" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="45">
         <v>45525</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D5" s="8" t="s">
@@ -5152,19 +4873,19 @@
       <c r="D7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
@@ -5218,7 +4939,7 @@
       <c r="B13" s="19">
         <v>3</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="49"/>
       <c r="E13" s="13" t="s">
         <v>142</v>
@@ -5230,7 +4951,7 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="49"/>
       <c r="E14" s="13" t="s">
         <v>151</v>
@@ -5244,7 +4965,7 @@
       <c r="B15" s="19">
         <v>5</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="49"/>
       <c r="E15" s="13" t="s">
         <v>143</v>
@@ -5259,7 +4980,7 @@
       <c r="B16" s="19">
         <v>6</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="49"/>
       <c r="E16" s="13" t="s">
         <v>153</v>
@@ -5273,7 +4994,7 @@
       <c r="B17" s="19">
         <v>7</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="49"/>
       <c r="E17" s="13" t="s">
         <v>144</v>
@@ -5285,7 +5006,7 @@
       <c r="B18" s="4">
         <v>8</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="49"/>
       <c r="E18" s="13" t="s">
         <v>145</v>
@@ -5297,7 +5018,7 @@
       <c r="B19" s="19">
         <v>9</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="49"/>
       <c r="E19" s="13" t="s">
         <v>146</v>
@@ -5309,7 +5030,7 @@
       <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="49"/>
       <c r="E20" s="13" t="s">
         <v>147</v>
@@ -5321,7 +5042,7 @@
       <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="49"/>
       <c r="E21" s="13" t="s">
         <v>157</v>
@@ -5333,7 +5054,7 @@
       <c r="B22" s="19">
         <v>12</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="49"/>
       <c r="E22" s="13" t="s">
         <v>148</v>
@@ -5345,7 +5066,7 @@
       <c r="B23" s="4">
         <v>13</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="49"/>
       <c r="E23" s="13" t="s">
         <v>149</v>
@@ -5357,7 +5078,7 @@
       <c r="B24" s="19">
         <v>14</v>
       </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="49"/>
       <c r="E24" s="13" t="s">
         <v>150</v>
@@ -5369,7 +5090,7 @@
       <c r="B25" s="20">
         <v>15</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="50"/>
       <c r="E25" s="21" t="s">
         <v>155</v>
@@ -5392,11 +5113,11 @@
       <c r="B28" s="22"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C29" s="45"/>
+      <c r="C29" s="47"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="22"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="47"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="22"/>
@@ -5404,11 +5125,11 @@
     </row>
     <row r="32" spans="2:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="22"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="47"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="22"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C34" s="14"/>
